--- a/Team-Data/2013-14/2-24-2013-14.xlsx
+++ b/Team-Data/2013-14/2-24-2013-14.xlsx
@@ -50,7 +50,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -66,6 +65,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -744,7 +811,7 @@
         <v>0</v>
       </c>
       <c r="AD2" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="AE2" t="n">
         <v>17</v>
@@ -831,7 +898,7 @@
       </c>
       <c r="BF2" t="inlineStr">
         <is>
-          <t>2-24-2013-14</t>
+          <t>2014-02-24</t>
         </is>
       </c>
     </row>
@@ -848,16 +915,16 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E3" t="n">
         <v>19</v>
       </c>
       <c r="F3" t="n">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G3" t="n">
-        <v>0.328</v>
+        <v>0.333</v>
       </c>
       <c r="H3" t="n">
         <v>48.1</v>
@@ -875,31 +942,31 @@
         <v>6.4</v>
       </c>
       <c r="M3" t="n">
-        <v>19.5</v>
+        <v>19.6</v>
       </c>
       <c r="N3" t="n">
-        <v>0.326</v>
+        <v>0.327</v>
       </c>
       <c r="O3" t="n">
-        <v>16.2</v>
+        <v>16.1</v>
       </c>
       <c r="P3" t="n">
         <v>21.1</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.766</v>
+        <v>0.762</v>
       </c>
       <c r="R3" t="n">
-        <v>11.7</v>
+        <v>11.6</v>
       </c>
       <c r="S3" t="n">
-        <v>31.3</v>
+        <v>31.5</v>
       </c>
       <c r="T3" t="n">
-        <v>43</v>
+        <v>43.2</v>
       </c>
       <c r="U3" t="n">
-        <v>20.2</v>
+        <v>20.3</v>
       </c>
       <c r="V3" t="n">
         <v>15.4</v>
@@ -911,25 +978,25 @@
         <v>4.6</v>
       </c>
       <c r="Y3" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="Z3" t="n">
-        <v>21.3</v>
+        <v>21.4</v>
       </c>
       <c r="AA3" t="n">
-        <v>19.1</v>
+        <v>19</v>
       </c>
       <c r="AB3" t="n">
         <v>95.09999999999999</v>
       </c>
       <c r="AC3" t="n">
-        <v>-3.9</v>
+        <v>-3.7</v>
       </c>
       <c r="AD3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AE3" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AF3" t="n">
         <v>27</v>
@@ -947,7 +1014,7 @@
         <v>11</v>
       </c>
       <c r="AK3" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AL3" t="n">
         <v>25</v>
@@ -968,22 +1035,22 @@
         <v>12</v>
       </c>
       <c r="AR3" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AS3" t="n">
         <v>20</v>
       </c>
       <c r="AT3" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AU3" t="n">
         <v>26</v>
       </c>
       <c r="AV3" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AW3" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AX3" t="n">
         <v>18</v>
@@ -1013,7 +1080,7 @@
       </c>
       <c r="BF3" t="inlineStr">
         <is>
-          <t>2-24-2013-14</t>
+          <t>2014-02-24</t>
         </is>
       </c>
     </row>
@@ -1159,13 +1226,13 @@
         <v>29</v>
       </c>
       <c r="AU4" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AV4" t="n">
         <v>11</v>
       </c>
       <c r="AW4" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AX4" t="n">
         <v>26</v>
@@ -1195,7 +1262,7 @@
       </c>
       <c r="BF4" t="inlineStr">
         <is>
-          <t>2-24-2013-14</t>
+          <t>2014-02-24</t>
         </is>
       </c>
     </row>
@@ -1290,7 +1357,7 @@
         <v>-1.6</v>
       </c>
       <c r="AD5" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AE5" t="n">
         <v>15</v>
@@ -1302,7 +1369,7 @@
         <v>17</v>
       </c>
       <c r="AH5" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AI5" t="n">
         <v>27</v>
@@ -1320,7 +1387,7 @@
         <v>28</v>
       </c>
       <c r="AN5" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AO5" t="n">
         <v>12</v>
@@ -1341,7 +1408,7 @@
         <v>21</v>
       </c>
       <c r="AU5" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AV5" t="n">
         <v>1</v>
@@ -1377,7 +1444,7 @@
       </c>
       <c r="BF5" t="inlineStr">
         <is>
-          <t>2-24-2013-14</t>
+          <t>2014-02-24</t>
         </is>
       </c>
     </row>
@@ -1472,7 +1539,7 @@
         <v>0.2</v>
       </c>
       <c r="AD6" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="AE6" t="n">
         <v>13</v>
@@ -1496,7 +1563,7 @@
         <v>28</v>
       </c>
       <c r="AL6" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AM6" t="n">
         <v>27</v>
@@ -1514,7 +1581,7 @@
         <v>10</v>
       </c>
       <c r="AR6" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AS6" t="n">
         <v>10</v>
@@ -1526,7 +1593,7 @@
         <v>11</v>
       </c>
       <c r="AV6" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AW6" t="n">
         <v>22</v>
@@ -1559,7 +1626,7 @@
       </c>
       <c r="BF6" t="inlineStr">
         <is>
-          <t>2-24-2013-14</t>
+          <t>2014-02-24</t>
         </is>
       </c>
     </row>
@@ -1654,7 +1721,7 @@
         <v>-4.7</v>
       </c>
       <c r="AD7" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AE7" t="n">
         <v>22</v>
@@ -1675,7 +1742,7 @@
         <v>5</v>
       </c>
       <c r="AK7" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AL7" t="n">
         <v>20</v>
@@ -1684,10 +1751,10 @@
         <v>20</v>
       </c>
       <c r="AN7" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AO7" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AP7" t="n">
         <v>15</v>
@@ -1711,7 +1778,7 @@
         <v>10</v>
       </c>
       <c r="AW7" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AX7" t="n">
         <v>29</v>
@@ -1741,7 +1808,7 @@
       </c>
       <c r="BF7" t="inlineStr">
         <is>
-          <t>2-24-2013-14</t>
+          <t>2014-02-24</t>
         </is>
       </c>
     </row>
@@ -1758,22 +1825,22 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E8" t="n">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F8" t="n">
         <v>23</v>
       </c>
       <c r="G8" t="n">
-        <v>0.603</v>
+        <v>0.596</v>
       </c>
       <c r="H8" t="n">
         <v>48.1</v>
       </c>
       <c r="I8" t="n">
-        <v>39.5</v>
+        <v>39.4</v>
       </c>
       <c r="J8" t="n">
         <v>83.40000000000001</v>
@@ -1782,37 +1849,37 @@
         <v>0.473</v>
       </c>
       <c r="L8" t="n">
-        <v>8.4</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="M8" t="n">
-        <v>22.4</v>
+        <v>22.2</v>
       </c>
       <c r="N8" t="n">
-        <v>0.376</v>
+        <v>0.375</v>
       </c>
       <c r="O8" t="n">
-        <v>17.1</v>
+        <v>17.2</v>
       </c>
       <c r="P8" t="n">
-        <v>21.4</v>
+        <v>21.5</v>
       </c>
       <c r="Q8" t="n">
         <v>0.801</v>
       </c>
       <c r="R8" t="n">
-        <v>10.1</v>
+        <v>10</v>
       </c>
       <c r="S8" t="n">
-        <v>30.4</v>
+        <v>30.6</v>
       </c>
       <c r="T8" t="n">
-        <v>40.5</v>
+        <v>40.6</v>
       </c>
       <c r="U8" t="n">
         <v>23.7</v>
       </c>
       <c r="V8" t="n">
-        <v>13.6</v>
+        <v>13.7</v>
       </c>
       <c r="W8" t="n">
         <v>8.699999999999999</v>
@@ -1830,13 +1897,13 @@
         <v>19.7</v>
       </c>
       <c r="AB8" t="n">
-        <v>104.5</v>
+        <v>104.4</v>
       </c>
       <c r="AC8" t="n">
         <v>2.2</v>
       </c>
       <c r="AD8" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AE8" t="n">
         <v>8</v>
@@ -1845,7 +1912,7 @@
         <v>10</v>
       </c>
       <c r="AG8" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AH8" t="n">
         <v>29</v>
@@ -1860,7 +1927,7 @@
         <v>5</v>
       </c>
       <c r="AL8" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AM8" t="n">
         <v>11</v>
@@ -1869,7 +1936,7 @@
         <v>7</v>
       </c>
       <c r="AO8" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AP8" t="n">
         <v>24</v>
@@ -1881,7 +1948,7 @@
         <v>23</v>
       </c>
       <c r="AS8" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AT8" t="n">
         <v>28</v>
@@ -1893,7 +1960,7 @@
         <v>4</v>
       </c>
       <c r="AW8" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AX8" t="n">
         <v>24</v>
@@ -1923,7 +1990,7 @@
       </c>
       <c r="BF8" t="inlineStr">
         <is>
-          <t>2-24-2013-14</t>
+          <t>2014-02-24</t>
         </is>
       </c>
     </row>
@@ -2018,7 +2085,7 @@
         <v>-2</v>
       </c>
       <c r="AD9" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="AE9" t="n">
         <v>19</v>
@@ -2039,10 +2106,10 @@
         <v>7</v>
       </c>
       <c r="AK9" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AL9" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AM9" t="n">
         <v>9</v>
@@ -2054,7 +2121,7 @@
         <v>9</v>
       </c>
       <c r="AP9" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AQ9" t="n">
         <v>27</v>
@@ -2072,7 +2139,7 @@
         <v>13</v>
       </c>
       <c r="AV9" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AW9" t="n">
         <v>23</v>
@@ -2105,7 +2172,7 @@
       </c>
       <c r="BF9" t="inlineStr">
         <is>
-          <t>2-24-2013-14</t>
+          <t>2014-02-24</t>
         </is>
       </c>
     </row>
@@ -2122,16 +2189,16 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E10" t="n">
         <v>23</v>
       </c>
       <c r="F10" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G10" t="n">
-        <v>0.404</v>
+        <v>0.411</v>
       </c>
       <c r="H10" t="n">
         <v>48.3</v>
@@ -2140,25 +2207,25 @@
         <v>38.8</v>
       </c>
       <c r="J10" t="n">
-        <v>86.40000000000001</v>
+        <v>86.2</v>
       </c>
       <c r="K10" t="n">
-        <v>0.449</v>
+        <v>0.45</v>
       </c>
       <c r="L10" t="n">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="M10" t="n">
-        <v>19.1</v>
+        <v>19.2</v>
       </c>
       <c r="N10" t="n">
         <v>0.312</v>
       </c>
       <c r="O10" t="n">
-        <v>17.1</v>
+        <v>17.2</v>
       </c>
       <c r="P10" t="n">
-        <v>25.8</v>
+        <v>26</v>
       </c>
       <c r="Q10" t="n">
         <v>0.662</v>
@@ -2173,10 +2240,10 @@
         <v>45</v>
       </c>
       <c r="U10" t="n">
-        <v>20.8</v>
+        <v>20.7</v>
       </c>
       <c r="V10" t="n">
-        <v>15</v>
+        <v>15.1</v>
       </c>
       <c r="W10" t="n">
         <v>8.800000000000001</v>
@@ -2188,19 +2255,19 @@
         <v>4.7</v>
       </c>
       <c r="Z10" t="n">
-        <v>20.5</v>
+        <v>20.4</v>
       </c>
       <c r="AA10" t="n">
         <v>20.6</v>
       </c>
       <c r="AB10" t="n">
-        <v>100.6</v>
+        <v>100.7</v>
       </c>
       <c r="AC10" t="n">
-        <v>-2.5</v>
+        <v>-2.4</v>
       </c>
       <c r="AD10" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="AE10" t="n">
         <v>20</v>
@@ -2212,7 +2279,7 @@
         <v>21</v>
       </c>
       <c r="AH10" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AI10" t="n">
         <v>7</v>
@@ -2224,19 +2291,19 @@
         <v>16</v>
       </c>
       <c r="AL10" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AM10" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AN10" t="n">
         <v>29</v>
       </c>
       <c r="AO10" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AP10" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AQ10" t="n">
         <v>30</v>
@@ -2245,13 +2312,13 @@
         <v>1</v>
       </c>
       <c r="AS10" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AT10" t="n">
         <v>8</v>
       </c>
       <c r="AU10" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="AV10" t="n">
         <v>17</v>
@@ -2260,7 +2327,7 @@
         <v>3</v>
       </c>
       <c r="AX10" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AY10" t="n">
         <v>16</v>
@@ -2269,7 +2336,7 @@
         <v>15</v>
       </c>
       <c r="BA10" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="BB10" t="n">
         <v>14</v>
@@ -2287,7 +2354,7 @@
       </c>
       <c r="BF10" t="inlineStr">
         <is>
-          <t>2-24-2013-14</t>
+          <t>2014-02-24</t>
         </is>
       </c>
     </row>
@@ -2304,16 +2371,16 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E11" t="n">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F11" t="n">
         <v>22</v>
       </c>
       <c r="G11" t="n">
-        <v>0.614</v>
+        <v>0.607</v>
       </c>
       <c r="H11" t="n">
         <v>48.4</v>
@@ -2322,19 +2389,19 @@
         <v>38.9</v>
       </c>
       <c r="J11" t="n">
-        <v>85</v>
+        <v>85.09999999999999</v>
       </c>
       <c r="K11" t="n">
         <v>0.457</v>
       </c>
       <c r="L11" t="n">
-        <v>9.199999999999999</v>
+        <v>9.1</v>
       </c>
       <c r="M11" t="n">
-        <v>24.3</v>
+        <v>24.2</v>
       </c>
       <c r="N11" t="n">
-        <v>0.379</v>
+        <v>0.378</v>
       </c>
       <c r="O11" t="n">
         <v>16.3</v>
@@ -2343,10 +2410,10 @@
         <v>21.9</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.743</v>
+        <v>0.745</v>
       </c>
       <c r="R11" t="n">
-        <v>11.2</v>
+        <v>11.3</v>
       </c>
       <c r="S11" t="n">
         <v>34.6</v>
@@ -2358,19 +2425,19 @@
         <v>22.8</v>
       </c>
       <c r="V11" t="n">
-        <v>15.7</v>
+        <v>15.8</v>
       </c>
       <c r="W11" t="n">
-        <v>7.9</v>
+        <v>8</v>
       </c>
       <c r="X11" t="n">
         <v>5.2</v>
       </c>
       <c r="Y11" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="Z11" t="n">
-        <v>21.9</v>
+        <v>22</v>
       </c>
       <c r="AA11" t="n">
         <v>19.9</v>
@@ -2379,10 +2446,10 @@
         <v>103.3</v>
       </c>
       <c r="AC11" t="n">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="AD11" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="AE11" t="n">
         <v>8</v>
@@ -2394,7 +2461,7 @@
         <v>8</v>
       </c>
       <c r="AH11" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AI11" t="n">
         <v>6</v>
@@ -2406,7 +2473,7 @@
         <v>9</v>
       </c>
       <c r="AL11" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AM11" t="n">
         <v>7</v>
@@ -2436,10 +2503,10 @@
         <v>10</v>
       </c>
       <c r="AV11" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AW11" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AX11" t="n">
         <v>9</v>
@@ -2469,7 +2536,7 @@
       </c>
       <c r="BF11" t="inlineStr">
         <is>
-          <t>2-24-2013-14</t>
+          <t>2014-02-24</t>
         </is>
       </c>
     </row>
@@ -2564,10 +2631,10 @@
         <v>4.3</v>
       </c>
       <c r="AD12" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="AE12" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AF12" t="n">
         <v>5</v>
@@ -2576,7 +2643,7 @@
         <v>5</v>
       </c>
       <c r="AH12" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AI12" t="n">
         <v>15</v>
@@ -2594,7 +2661,7 @@
         <v>1</v>
       </c>
       <c r="AN12" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AO12" t="n">
         <v>2</v>
@@ -2651,7 +2718,7 @@
       </c>
       <c r="BF12" t="inlineStr">
         <is>
-          <t>2-24-2013-14</t>
+          <t>2014-02-24</t>
         </is>
       </c>
     </row>
@@ -2746,7 +2813,7 @@
         <v>7.9</v>
       </c>
       <c r="AD13" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="AE13" t="n">
         <v>2</v>
@@ -2776,7 +2843,7 @@
         <v>22</v>
       </c>
       <c r="AN13" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AO13" t="n">
         <v>11</v>
@@ -2797,7 +2864,7 @@
         <v>4</v>
       </c>
       <c r="AU13" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AV13" t="n">
         <v>20</v>
@@ -2833,7 +2900,7 @@
       </c>
       <c r="BF13" t="inlineStr">
         <is>
-          <t>2-24-2013-14</t>
+          <t>2014-02-24</t>
         </is>
       </c>
     </row>
@@ -2850,37 +2917,37 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E14" t="n">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F14" t="n">
         <v>20</v>
       </c>
       <c r="G14" t="n">
-        <v>0.661</v>
+        <v>0.655</v>
       </c>
       <c r="H14" t="n">
         <v>48.3</v>
       </c>
       <c r="I14" t="n">
-        <v>38.6</v>
+        <v>38.5</v>
       </c>
       <c r="J14" t="n">
-        <v>81.7</v>
+        <v>81.59999999999999</v>
       </c>
       <c r="K14" t="n">
-        <v>0.473</v>
+        <v>0.472</v>
       </c>
       <c r="L14" t="n">
-        <v>8.300000000000001</v>
+        <v>8.1</v>
       </c>
       <c r="M14" t="n">
         <v>23.6</v>
       </c>
       <c r="N14" t="n">
-        <v>0.349</v>
+        <v>0.345</v>
       </c>
       <c r="O14" t="n">
         <v>21.9</v>
@@ -2889,7 +2956,7 @@
         <v>30.1</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.728</v>
+        <v>0.727</v>
       </c>
       <c r="R14" t="n">
         <v>10.4</v>
@@ -2898,34 +2965,34 @@
         <v>32.6</v>
       </c>
       <c r="T14" t="n">
-        <v>42.9</v>
+        <v>43</v>
       </c>
       <c r="U14" t="n">
-        <v>24.2</v>
+        <v>24</v>
       </c>
       <c r="V14" t="n">
         <v>13.9</v>
       </c>
       <c r="W14" t="n">
-        <v>8.300000000000001</v>
+        <v>8.4</v>
       </c>
       <c r="X14" t="n">
         <v>4.5</v>
       </c>
       <c r="Y14" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="Z14" t="n">
-        <v>21.6</v>
+        <v>21.4</v>
       </c>
       <c r="AA14" t="n">
         <v>24.1</v>
       </c>
       <c r="AB14" t="n">
-        <v>107.3</v>
+        <v>107.1</v>
       </c>
       <c r="AC14" t="n">
-        <v>6</v>
+        <v>5.9</v>
       </c>
       <c r="AD14" t="n">
         <v>1</v>
@@ -2952,13 +3019,13 @@
         <v>6</v>
       </c>
       <c r="AL14" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AM14" t="n">
         <v>8</v>
       </c>
       <c r="AN14" t="n">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="AO14" t="n">
         <v>1</v>
@@ -2967,7 +3034,7 @@
         <v>2</v>
       </c>
       <c r="AQ14" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AR14" t="n">
         <v>21</v>
@@ -3015,7 +3082,7 @@
       </c>
       <c r="BF14" t="inlineStr">
         <is>
-          <t>2-24-2013-14</t>
+          <t>2014-02-24</t>
         </is>
       </c>
     </row>
@@ -3110,10 +3177,10 @@
         <v>-5.3</v>
       </c>
       <c r="AD15" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="AE15" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AF15" t="n">
         <v>26</v>
@@ -3131,13 +3198,13 @@
         <v>10</v>
       </c>
       <c r="AK15" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AL15" t="n">
+        <v>4</v>
+      </c>
+      <c r="AM15" t="n">
         <v>5</v>
-      </c>
-      <c r="AM15" t="n">
-        <v>6</v>
       </c>
       <c r="AN15" t="n">
         <v>8</v>
@@ -3197,7 +3264,7 @@
       </c>
       <c r="BF15" t="inlineStr">
         <is>
-          <t>2-24-2013-14</t>
+          <t>2014-02-24</t>
         </is>
       </c>
     </row>
@@ -3292,7 +3359,7 @@
         <v>0.3</v>
       </c>
       <c r="AD16" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="AE16" t="n">
         <v>11</v>
@@ -3340,7 +3407,7 @@
         <v>22</v>
       </c>
       <c r="AT16" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AU16" t="n">
         <v>15</v>
@@ -3364,7 +3431,7 @@
         <v>30</v>
       </c>
       <c r="BB16" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="BC16" t="n">
         <v>13</v>
@@ -3379,7 +3446,7 @@
       </c>
       <c r="BF16" t="inlineStr">
         <is>
-          <t>2-24-2013-14</t>
+          <t>2014-02-24</t>
         </is>
       </c>
     </row>
@@ -3504,7 +3571,7 @@
         <v>13</v>
       </c>
       <c r="AN17" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AO17" t="n">
         <v>13</v>
@@ -3561,7 +3628,7 @@
       </c>
       <c r="BF17" t="inlineStr">
         <is>
-          <t>2-24-2013-14</t>
+          <t>2014-02-24</t>
         </is>
       </c>
     </row>
@@ -3578,28 +3645,28 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E18" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F18" t="n">
         <v>45</v>
       </c>
       <c r="G18" t="n">
-        <v>0.196</v>
+        <v>0.182</v>
       </c>
       <c r="H18" t="n">
         <v>48.6</v>
       </c>
       <c r="I18" t="n">
-        <v>35.2</v>
+        <v>35</v>
       </c>
       <c r="J18" t="n">
         <v>82.7</v>
       </c>
       <c r="K18" t="n">
-        <v>0.426</v>
+        <v>0.423</v>
       </c>
       <c r="L18" t="n">
         <v>7.3</v>
@@ -3608,31 +3675,31 @@
         <v>20.7</v>
       </c>
       <c r="N18" t="n">
-        <v>0.355</v>
+        <v>0.351</v>
       </c>
       <c r="O18" t="n">
-        <v>15.5</v>
+        <v>15.4</v>
       </c>
       <c r="P18" t="n">
-        <v>20.6</v>
+        <v>20.5</v>
       </c>
       <c r="Q18" t="n">
         <v>0.751</v>
       </c>
       <c r="R18" t="n">
-        <v>11.7</v>
+        <v>11.5</v>
       </c>
       <c r="S18" t="n">
         <v>29.7</v>
       </c>
       <c r="T18" t="n">
-        <v>41.4</v>
+        <v>41.3</v>
       </c>
       <c r="U18" t="n">
-        <v>21.1</v>
+        <v>20.9</v>
       </c>
       <c r="V18" t="n">
-        <v>15.6</v>
+        <v>15.4</v>
       </c>
       <c r="W18" t="n">
         <v>6.8</v>
@@ -3647,16 +3714,16 @@
         <v>20.9</v>
       </c>
       <c r="AA18" t="n">
-        <v>20.3</v>
+        <v>20.2</v>
       </c>
       <c r="AB18" t="n">
-        <v>93.3</v>
+        <v>92.59999999999999</v>
       </c>
       <c r="AC18" t="n">
-        <v>-8.800000000000001</v>
+        <v>-9.300000000000001</v>
       </c>
       <c r="AD18" t="n">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="AE18" t="n">
         <v>30</v>
@@ -3677,7 +3744,7 @@
         <v>16</v>
       </c>
       <c r="AK18" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AL18" t="n">
         <v>18</v>
@@ -3686,10 +3753,10 @@
         <v>17</v>
       </c>
       <c r="AN18" t="n">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="AO18" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AP18" t="n">
         <v>27</v>
@@ -3698,7 +3765,7 @@
         <v>20</v>
       </c>
       <c r="AR18" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AS18" t="n">
         <v>29</v>
@@ -3707,10 +3774,10 @@
         <v>25</v>
       </c>
       <c r="AU18" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AV18" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AW18" t="n">
         <v>27</v>
@@ -3743,7 +3810,7 @@
       </c>
       <c r="BF18" t="inlineStr">
         <is>
-          <t>2-24-2013-14</t>
+          <t>2014-02-24</t>
         </is>
       </c>
     </row>
@@ -3838,7 +3905,7 @@
         <v>3.9</v>
       </c>
       <c r="AD19" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="AE19" t="n">
         <v>15</v>
@@ -3850,7 +3917,7 @@
         <v>15</v>
       </c>
       <c r="AH19" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AI19" t="n">
         <v>10</v>
@@ -3868,7 +3935,7 @@
         <v>12</v>
       </c>
       <c r="AN19" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AO19" t="n">
         <v>3</v>
@@ -3895,7 +3962,7 @@
         <v>7</v>
       </c>
       <c r="AW19" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AX19" t="n">
         <v>30</v>
@@ -3925,7 +3992,7 @@
       </c>
       <c r="BF19" t="inlineStr">
         <is>
-          <t>2-24-2013-14</t>
+          <t>2014-02-24</t>
         </is>
       </c>
     </row>
@@ -3942,22 +4009,22 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E20" t="n">
         <v>23</v>
       </c>
       <c r="F20" t="n">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G20" t="n">
-        <v>0.411</v>
+        <v>0.418</v>
       </c>
       <c r="H20" t="n">
         <v>48.4</v>
       </c>
       <c r="I20" t="n">
-        <v>37.9</v>
+        <v>38</v>
       </c>
       <c r="J20" t="n">
         <v>83.40000000000001</v>
@@ -3966,40 +4033,40 @@
         <v>0.455</v>
       </c>
       <c r="L20" t="n">
-        <v>6.1</v>
+        <v>6</v>
       </c>
       <c r="M20" t="n">
-        <v>15.8</v>
+        <v>15.7</v>
       </c>
       <c r="N20" t="n">
         <v>0.384</v>
       </c>
       <c r="O20" t="n">
-        <v>17.4</v>
+        <v>17.1</v>
       </c>
       <c r="P20" t="n">
-        <v>22.7</v>
+        <v>22.4</v>
       </c>
       <c r="Q20" t="n">
-        <v>0.766</v>
+        <v>0.764</v>
       </c>
       <c r="R20" t="n">
-        <v>12.1</v>
+        <v>12</v>
       </c>
       <c r="S20" t="n">
         <v>30.3</v>
       </c>
       <c r="T20" t="n">
-        <v>42.5</v>
+        <v>42.3</v>
       </c>
       <c r="U20" t="n">
         <v>21.3</v>
       </c>
       <c r="V20" t="n">
-        <v>13.7</v>
+        <v>13.8</v>
       </c>
       <c r="W20" t="n">
-        <v>8.1</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="X20" t="n">
         <v>6.4</v>
@@ -4011,16 +4078,16 @@
         <v>22.6</v>
       </c>
       <c r="AA20" t="n">
-        <v>19.8</v>
+        <v>19.7</v>
       </c>
       <c r="AB20" t="n">
-        <v>99.3</v>
+        <v>99.09999999999999</v>
       </c>
       <c r="AC20" t="n">
-        <v>-1.9</v>
+        <v>-1.7</v>
       </c>
       <c r="AD20" t="n">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="AE20" t="n">
         <v>20</v>
@@ -4032,7 +4099,7 @@
         <v>20</v>
       </c>
       <c r="AH20" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AI20" t="n">
         <v>13</v>
@@ -4053,7 +4120,7 @@
         <v>2</v>
       </c>
       <c r="AO20" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="AP20" t="n">
         <v>18</v>
@@ -4062,19 +4129,19 @@
         <v>11</v>
       </c>
       <c r="AR20" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AS20" t="n">
         <v>26</v>
       </c>
       <c r="AT20" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="AU20" t="n">
         <v>16</v>
       </c>
       <c r="AV20" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AW20" t="n">
         <v>11</v>
@@ -4089,7 +4156,7 @@
         <v>27</v>
       </c>
       <c r="BA20" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="BB20" t="n">
         <v>19</v>
@@ -4107,7 +4174,7 @@
       </c>
       <c r="BF20" t="inlineStr">
         <is>
-          <t>2-24-2013-14</t>
+          <t>2014-02-24</t>
         </is>
       </c>
     </row>
@@ -4124,16 +4191,16 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E21" t="n">
         <v>21</v>
       </c>
       <c r="F21" t="n">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G21" t="n">
-        <v>0.368</v>
+        <v>0.375</v>
       </c>
       <c r="H21" t="n">
         <v>48.6</v>
@@ -4142,28 +4209,28 @@
         <v>37</v>
       </c>
       <c r="J21" t="n">
-        <v>83.09999999999999</v>
+        <v>83.3</v>
       </c>
       <c r="K21" t="n">
-        <v>0.446</v>
+        <v>0.444</v>
       </c>
       <c r="L21" t="n">
-        <v>9.1</v>
+        <v>9</v>
       </c>
       <c r="M21" t="n">
-        <v>24.7</v>
+        <v>24.5</v>
       </c>
       <c r="N21" t="n">
-        <v>0.369</v>
+        <v>0.368</v>
       </c>
       <c r="O21" t="n">
         <v>14.7</v>
       </c>
       <c r="P21" t="n">
-        <v>19.6</v>
+        <v>19.7</v>
       </c>
       <c r="Q21" t="n">
-        <v>0.748</v>
+        <v>0.746</v>
       </c>
       <c r="R21" t="n">
         <v>10.8</v>
@@ -4175,16 +4242,16 @@
         <v>40.7</v>
       </c>
       <c r="U21" t="n">
-        <v>20.5</v>
+        <v>20.4</v>
       </c>
       <c r="V21" t="n">
-        <v>13.1</v>
+        <v>12.9</v>
       </c>
       <c r="W21" t="n">
-        <v>7.7</v>
+        <v>7.8</v>
       </c>
       <c r="X21" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="Y21" t="n">
         <v>3.7</v>
@@ -4196,19 +4263,19 @@
         <v>19.7</v>
       </c>
       <c r="AB21" t="n">
-        <v>97.90000000000001</v>
+        <v>97.7</v>
       </c>
       <c r="AC21" t="n">
         <v>-1.9</v>
       </c>
       <c r="AD21" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="AE21" t="n">
         <v>23</v>
       </c>
       <c r="AF21" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AG21" t="n">
         <v>23</v>
@@ -4223,16 +4290,16 @@
         <v>14</v>
       </c>
       <c r="AK21" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="AL21" t="n">
         <v>7</v>
       </c>
       <c r="AM21" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AN21" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AO21" t="n">
         <v>30</v>
@@ -4253,13 +4320,13 @@
         <v>26</v>
       </c>
       <c r="AU21" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AV21" t="n">
         <v>2</v>
       </c>
       <c r="AW21" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AX21" t="n">
         <v>19</v>
@@ -4271,13 +4338,13 @@
         <v>26</v>
       </c>
       <c r="BA21" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="BB21" t="n">
         <v>21</v>
       </c>
       <c r="BC21" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="BD21" t="n">
         <v>10</v>
@@ -4289,7 +4356,7 @@
       </c>
       <c r="BF21" t="inlineStr">
         <is>
-          <t>2-24-2013-14</t>
+          <t>2014-02-24</t>
         </is>
       </c>
     </row>
@@ -4384,7 +4451,7 @@
         <v>6.6</v>
       </c>
       <c r="AD22" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AE22" t="n">
         <v>1</v>
@@ -4471,7 +4538,7 @@
       </c>
       <c r="BF22" t="inlineStr">
         <is>
-          <t>2-24-2013-14</t>
+          <t>2014-02-24</t>
         </is>
       </c>
     </row>
@@ -4566,7 +4633,7 @@
         <v>-5.3</v>
       </c>
       <c r="AD23" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AE23" t="n">
         <v>28</v>
@@ -4596,7 +4663,7 @@
         <v>21</v>
       </c>
       <c r="AN23" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AO23" t="n">
         <v>23</v>
@@ -4617,13 +4684,13 @@
         <v>23</v>
       </c>
       <c r="AU23" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AV23" t="n">
         <v>12</v>
       </c>
       <c r="AW23" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AX23" t="n">
         <v>25</v>
@@ -4653,7 +4720,7 @@
       </c>
       <c r="BF23" t="inlineStr">
         <is>
-          <t>2-24-2013-14</t>
+          <t>2014-02-24</t>
         </is>
       </c>
     </row>
@@ -4670,28 +4737,28 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E24" t="n">
         <v>15</v>
       </c>
       <c r="F24" t="n">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G24" t="n">
-        <v>0.263</v>
+        <v>0.268</v>
       </c>
       <c r="H24" t="n">
         <v>48.6</v>
       </c>
       <c r="I24" t="n">
-        <v>38.4</v>
+        <v>38.3</v>
       </c>
       <c r="J24" t="n">
         <v>88.40000000000001</v>
       </c>
       <c r="K24" t="n">
-        <v>0.435</v>
+        <v>0.434</v>
       </c>
       <c r="L24" t="n">
         <v>6.8</v>
@@ -4700,10 +4767,10 @@
         <v>21.9</v>
       </c>
       <c r="N24" t="n">
-        <v>0.311</v>
+        <v>0.31</v>
       </c>
       <c r="O24" t="n">
-        <v>16.7</v>
+        <v>16.8</v>
       </c>
       <c r="P24" t="n">
         <v>23.4</v>
@@ -4715,25 +4782,25 @@
         <v>12</v>
       </c>
       <c r="S24" t="n">
-        <v>32.1</v>
+        <v>32.3</v>
       </c>
       <c r="T24" t="n">
-        <v>44</v>
+        <v>44.3</v>
       </c>
       <c r="U24" t="n">
-        <v>22.2</v>
+        <v>22.1</v>
       </c>
       <c r="V24" t="n">
         <v>17.4</v>
       </c>
       <c r="W24" t="n">
-        <v>9.300000000000001</v>
+        <v>9.1</v>
       </c>
       <c r="X24" t="n">
         <v>4</v>
       </c>
       <c r="Y24" t="n">
-        <v>7.3</v>
+        <v>7.4</v>
       </c>
       <c r="Z24" t="n">
         <v>21.8</v>
@@ -4742,19 +4809,19 @@
         <v>20.6</v>
       </c>
       <c r="AB24" t="n">
-        <v>100.4</v>
+        <v>100.2</v>
       </c>
       <c r="AC24" t="n">
-        <v>-10.6</v>
+        <v>-10.5</v>
       </c>
       <c r="AD24" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="AE24" t="n">
         <v>29</v>
       </c>
       <c r="AF24" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AG24" t="n">
         <v>29</v>
@@ -4769,7 +4836,7 @@
         <v>1</v>
       </c>
       <c r="AK24" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AL24" t="n">
         <v>22</v>
@@ -4790,7 +4857,7 @@
         <v>28</v>
       </c>
       <c r="AR24" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AS24" t="n">
         <v>14</v>
@@ -4835,7 +4902,7 @@
       </c>
       <c r="BF24" t="inlineStr">
         <is>
-          <t>2-24-2013-14</t>
+          <t>2014-02-24</t>
         </is>
       </c>
     </row>
@@ -4930,7 +4997,7 @@
         <v>3.4</v>
       </c>
       <c r="AD25" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="AE25" t="n">
         <v>10</v>
@@ -4939,7 +5006,7 @@
         <v>8</v>
       </c>
       <c r="AG25" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AH25" t="n">
         <v>19</v>
@@ -4960,7 +5027,7 @@
         <v>2</v>
       </c>
       <c r="AN25" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AO25" t="n">
         <v>10</v>
@@ -5017,7 +5084,7 @@
       </c>
       <c r="BF25" t="inlineStr">
         <is>
-          <t>2-24-2013-14</t>
+          <t>2014-02-24</t>
         </is>
       </c>
     </row>
@@ -5112,10 +5179,10 @@
         <v>4.2</v>
       </c>
       <c r="AD26" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="AE26" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AF26" t="n">
         <v>5</v>
@@ -5124,7 +5191,7 @@
         <v>5</v>
       </c>
       <c r="AH26" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AI26" t="n">
         <v>2</v>
@@ -5139,7 +5206,7 @@
         <v>3</v>
       </c>
       <c r="AM26" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AN26" t="n">
         <v>3</v>
@@ -5166,7 +5233,7 @@
         <v>5</v>
       </c>
       <c r="AV26" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AW26" t="n">
         <v>30</v>
@@ -5175,7 +5242,7 @@
         <v>14</v>
       </c>
       <c r="AY26" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AZ26" t="n">
         <v>6</v>
@@ -5199,7 +5266,7 @@
       </c>
       <c r="BF26" t="inlineStr">
         <is>
-          <t>2-24-2013-14</t>
+          <t>2014-02-24</t>
         </is>
       </c>
     </row>
@@ -5294,13 +5361,13 @@
         <v>-1.9</v>
       </c>
       <c r="AD27" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="AE27" t="n">
         <v>24</v>
       </c>
       <c r="AF27" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AG27" t="n">
         <v>24</v>
@@ -5318,13 +5385,13 @@
         <v>17</v>
       </c>
       <c r="AL27" t="n">
+        <v>24</v>
+      </c>
+      <c r="AM27" t="n">
+        <v>25</v>
+      </c>
+      <c r="AN27" t="n">
         <v>23</v>
-      </c>
-      <c r="AM27" t="n">
-        <v>24</v>
-      </c>
-      <c r="AN27" t="n">
-        <v>24</v>
       </c>
       <c r="AO27" t="n">
         <v>4</v>
@@ -5381,7 +5448,7 @@
       </c>
       <c r="BF27" t="inlineStr">
         <is>
-          <t>2-24-2013-14</t>
+          <t>2014-02-24</t>
         </is>
       </c>
     </row>
@@ -5476,7 +5543,7 @@
         <v>5.8</v>
       </c>
       <c r="AD28" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="AE28" t="n">
         <v>3</v>
@@ -5509,7 +5576,7 @@
         <v>1</v>
       </c>
       <c r="AO28" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AP28" t="n">
         <v>29</v>
@@ -5524,7 +5591,7 @@
         <v>5</v>
       </c>
       <c r="AT28" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AU28" t="n">
         <v>2</v>
@@ -5563,7 +5630,7 @@
       </c>
       <c r="BF28" t="inlineStr">
         <is>
-          <t>2-24-2013-14</t>
+          <t>2014-02-24</t>
         </is>
       </c>
     </row>
@@ -5658,7 +5725,7 @@
         <v>3.1</v>
       </c>
       <c r="AD29" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="AE29" t="n">
         <v>11</v>
@@ -5679,10 +5746,10 @@
         <v>18</v>
       </c>
       <c r="AK29" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AL29" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AM29" t="n">
         <v>10</v>
@@ -5706,10 +5773,10 @@
         <v>21</v>
       </c>
       <c r="AT29" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AU29" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AV29" t="n">
         <v>9</v>
@@ -5745,7 +5812,7 @@
       </c>
       <c r="BF29" t="inlineStr">
         <is>
-          <t>2-24-2013-14</t>
+          <t>2014-02-24</t>
         </is>
       </c>
     </row>
@@ -5762,34 +5829,34 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E30" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F30" t="n">
         <v>36</v>
       </c>
       <c r="G30" t="n">
-        <v>0.357</v>
+        <v>0.345</v>
       </c>
       <c r="H30" t="n">
         <v>48.2</v>
       </c>
       <c r="I30" t="n">
-        <v>35.9</v>
+        <v>35.7</v>
       </c>
       <c r="J30" t="n">
         <v>81.3</v>
       </c>
       <c r="K30" t="n">
-        <v>0.442</v>
+        <v>0.44</v>
       </c>
       <c r="L30" t="n">
         <v>6.6</v>
       </c>
       <c r="M30" t="n">
-        <v>18.9</v>
+        <v>19</v>
       </c>
       <c r="N30" t="n">
         <v>0.349</v>
@@ -5801,19 +5868,19 @@
         <v>21.9</v>
       </c>
       <c r="Q30" t="n">
-        <v>0.753</v>
+        <v>0.752</v>
       </c>
       <c r="R30" t="n">
         <v>10.9</v>
       </c>
       <c r="S30" t="n">
-        <v>30.7</v>
+        <v>30.8</v>
       </c>
       <c r="T30" t="n">
-        <v>41.6</v>
+        <v>41.7</v>
       </c>
       <c r="U30" t="n">
-        <v>20</v>
+        <v>19.9</v>
       </c>
       <c r="V30" t="n">
         <v>14.6</v>
@@ -5822,7 +5889,7 @@
         <v>6.9</v>
       </c>
       <c r="X30" t="n">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="Y30" t="n">
         <v>4.8</v>
@@ -5834,22 +5901,22 @@
         <v>20.5</v>
       </c>
       <c r="AB30" t="n">
-        <v>94.90000000000001</v>
+        <v>94.59999999999999</v>
       </c>
       <c r="AC30" t="n">
-        <v>-5.8</v>
+        <v>-6.2</v>
       </c>
       <c r="AD30" t="n">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="AE30" t="n">
+        <v>25</v>
+      </c>
+      <c r="AF30" t="n">
         <v>24</v>
       </c>
-      <c r="AF30" t="n">
-        <v>23</v>
-      </c>
       <c r="AG30" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AH30" t="n">
         <v>24</v>
@@ -5861,7 +5928,7 @@
         <v>25</v>
       </c>
       <c r="AK30" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AL30" t="n">
         <v>23</v>
@@ -5870,7 +5937,7 @@
         <v>26</v>
       </c>
       <c r="AN30" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AO30" t="n">
         <v>22</v>
@@ -5912,7 +5979,7 @@
         <v>16</v>
       </c>
       <c r="BB30" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="BC30" t="n">
         <v>28</v>
@@ -5927,7 +5994,7 @@
       </c>
       <c r="BF30" t="inlineStr">
         <is>
-          <t>2-24-2013-14</t>
+          <t>2014-02-24</t>
         </is>
       </c>
     </row>
@@ -6022,7 +6089,7 @@
         <v>0.2</v>
       </c>
       <c r="AD31" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="AE31" t="n">
         <v>14</v>
@@ -6061,7 +6128,7 @@
         <v>26</v>
       </c>
       <c r="AQ31" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AR31" t="n">
         <v>19</v>
@@ -6070,7 +6137,7 @@
         <v>19</v>
       </c>
       <c r="AT31" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AU31" t="n">
         <v>8</v>
@@ -6109,7 +6176,7 @@
       </c>
       <c r="BF31" t="inlineStr">
         <is>
-          <t>2-24-2013-14</t>
+          <t>2014-02-24</t>
         </is>
       </c>
     </row>
